--- a/info/metricas/NN/RELU/NN7.xlsx
+++ b/info/metricas/NN/RELU/NN7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7763022035501463</v>
+        <v>0.8125202458947144</v>
       </c>
       <c r="C2" t="n">
-        <v>83321.80310233108</v>
+        <v>68547.98231733585</v>
       </c>
       <c r="D2" t="n">
-        <v>184.1156500039501</v>
+        <v>172.7560986405034</v>
       </c>
       <c r="E2" t="n">
-        <v>113.3010736083984</v>
+        <v>105.8551880645752</v>
       </c>
       <c r="F2" t="n">
-        <v>4679667.476150399</v>
+        <v>878292.0054883194</v>
       </c>
       <c r="G2" t="n">
-        <v>2963.91724609375</v>
+        <v>1913.52294921875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7765164158248336</v>
+        <v>0.8125203467370515</v>
       </c>
       <c r="I2" t="n">
-        <v>6.200046305862423e+16</v>
+        <v>6.10294067071378e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-672230.1423982882</v>
+        <v>-120006.6503327638</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7782799370400741</v>
+        <v>0.7644672094291128</v>
       </c>
       <c r="C3" t="n">
-        <v>82277.87646974289</v>
+        <v>84131.96231669786</v>
       </c>
       <c r="D3" t="n">
-        <v>184.0004693643783</v>
+        <v>183.2838214630522</v>
       </c>
       <c r="E3" t="n">
-        <v>114.7474755859375</v>
+        <v>113.9494537353516</v>
       </c>
       <c r="F3" t="n">
-        <v>4676739.929834404</v>
+        <v>931814.9483181572</v>
       </c>
       <c r="G3" t="n">
-        <v>3719.22671875</v>
+        <v>3087.14697265625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7782816972131421</v>
+        <v>0.7644729611034548</v>
       </c>
       <c r="I3" t="n">
-        <v>5.334647565215711e+16</v>
+        <v>5.887655873368919e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-683988.4915021631</v>
+        <v>-142386.2526925327</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7694898800034325</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87499.4327511403</v>
+      </c>
+      <c r="D4" t="n">
+        <v>185.7498811958307</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110.8684531402588</v>
+      </c>
+      <c r="F4" t="n">
+        <v>944352.3959996032</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2855.573955078125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7695835553421312</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.983661030750647e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-137066.5102663545</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8056133444726833</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75503.13319914625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>177.6064653883873</v>
+      </c>
+      <c r="E5" t="n">
+        <v>103.2052938842773</v>
+      </c>
+      <c r="F5" t="n">
+        <v>902951.2700345612</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2047.386108398438</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8057481199966852</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.65040257050125e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-121714.9530980268</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8167514018378914</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68306.42633990936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>171.813984799735</v>
+      </c>
+      <c r="E6" t="n">
+        <v>102.631396484375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>873330.4847370529</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1889.8486328125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8167514156228117</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.117774750946773e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-120466.5508047413</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8008929779423394</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75203.70289163863</v>
+      </c>
+      <c r="D7" t="n">
+        <v>184.5939603821415</v>
+      </c>
+      <c r="E7" t="n">
+        <v>112.6067593383789</v>
+      </c>
+      <c r="F7" t="n">
+        <v>938291.1006224251</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2199.016357421875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8013009650015432</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.638229887836724e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-75352.45597958367</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7945392347605484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>77770.25419743883</v>
+      </c>
+      <c r="D8" t="n">
+        <v>180.5428937446614</v>
+      </c>
+      <c r="E8" t="n">
+        <v>105.3059033203126</v>
+      </c>
+      <c r="F8" t="n">
+        <v>917699.5289041137</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2136.979248046875</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7946931535727995</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.187333451117162e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-111208.4336130502</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8057050525540093</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72748.30435642459</v>
+      </c>
+      <c r="D9" t="n">
+        <v>172.4924968621807</v>
+      </c>
+      <c r="E9" t="n">
+        <v>102.7251770019531</v>
+      </c>
+      <c r="F9" t="n">
+        <v>876779.3615504645</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2607.3624609375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8059966167248175</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.772677318765599e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-121058.2224737537</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7946587292151628</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72929.9579633916</v>
+      </c>
+      <c r="D10" t="n">
+        <v>176.3552862796037</v>
+      </c>
+      <c r="E10" t="n">
+        <v>106.0815283203126</v>
+      </c>
+      <c r="F10" t="n">
+        <v>896413.9201592256</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2145.844482421875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7946831612426448</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.857682284846882e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-139216.3957044163</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7792934450799781</v>
+      </c>
+      <c r="C11" t="n">
+        <v>81187.39106766302</v>
+      </c>
+      <c r="D11" t="n">
+        <v>183.0341697606491</v>
+      </c>
+      <c r="E11" t="n">
+        <v>108.0114340209961</v>
+      </c>
+      <c r="F11" t="n">
+        <v>930362.6848933792</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2265.935791015625</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7793079319907921</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.166945699461912e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-134888.0682478232</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU7</t>
         </is>
